--- a/tabtoy/table/ActivityConfig.xlsx
+++ b/tabtoy/table/ActivityConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\QuickStart\tabtoy\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82788AD-E4CB-4C18-8DD7-03B34447353E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D50FF7-010A-4106-B875-C250ACA1AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ture</t>
+    <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +101,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -385,7 +385,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
